--- a/Coordinates.xlsx
+++ b/Coordinates.xlsx
@@ -34,165 +34,243 @@
     <t xml:space="preserve">Abra</t>
   </si>
   <si>
+    <t xml:space="preserve">Agusan del Norte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agusan del Sur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aklan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Albay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antique</t>
+  </si>
+  <si>
     <t xml:space="preserve">Apayao</t>
   </si>
   <si>
+    <t xml:space="preserve">Aurora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Basilan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bataan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batanes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Batangas</t>
+  </si>
+  <si>
     <t xml:space="preserve">Benguet</t>
   </si>
   <si>
+    <t xml:space="preserve">Biliran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bohol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bukidnon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulacan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cagayan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camarines Norte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camarines Sur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camiguin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capiz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Caraga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catanduanes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cavite</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cebu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Compostela Valley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cotabato City</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davao del Norte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davao del Sur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davao Occidental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Davao Oriental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dinagat Islands</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastern Samar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guimaras</t>
+  </si>
+  <si>
     <t xml:space="preserve">Ifugao</t>
   </si>
   <si>
+    <t xml:space="preserve">Ilocos Norte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ilocos Sur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iloilo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Isabela</t>
+  </si>
+  <si>
     <t xml:space="preserve">Kalinga</t>
   </si>
   <si>
+    <t xml:space="preserve">La Union</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laguna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lanao del Norte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lanao del Sur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maguindanao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marinduque</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Masbate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misamis Occidental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Misamis Oriental</t>
+  </si>
+  <si>
     <t xml:space="preserve">Mountain Province</t>
   </si>
   <si>
-    <t xml:space="preserve">Ilocos Norte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ilocos Sur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">La Union</t>
+    <t xml:space="preserve">Negros Occidental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Negros Oriental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Cotabato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Northern Samar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nueva Ecija</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nueva Vizcaya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Occidental Mindoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oriental Mindoro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palawan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pampanga</t>
   </si>
   <si>
     <t xml:space="preserve">Pangasinan</t>
   </si>
   <si>
-    <t xml:space="preserve">Batanes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cagayan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nueva Vizcaya</t>
+    <t xml:space="preserve">Quezon</t>
   </si>
   <si>
     <t xml:space="preserve">Quirino</t>
   </si>
   <si>
-    <t xml:space="preserve">Aurora</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bataan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bulacan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Nueva Ecija</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pampanga</t>
+    <t xml:space="preserve">Rizal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romblon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarangani</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siquijor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sorsogon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Cotabato</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southern Leyte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sultan Kudarat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sulu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surigao del Norte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Surigao del Sur</t>
   </si>
   <si>
     <t xml:space="preserve">Tarlac</t>
   </si>
   <si>
+    <t xml:space="preserve">Tawi-Tawi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Western Samar</t>
+  </si>
+  <si>
     <t xml:space="preserve">Zambales</t>
   </si>
   <si>
-    <t xml:space="preserve">Batangas</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cavite</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Laguna</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quezon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rizal</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Marinduque</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Occidental Mindoro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oriental Mindoro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Palawan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Romblon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Albay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camarines Norte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camarines Sur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Catanduanes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Masbate</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sorsogon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aklan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Antique</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capiz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guimaras</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iloilo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negros Occidental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bohol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cebu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Negros Oriental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Siquijor</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biliran</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Eastern Samar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leyte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Northern Samar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Western Samar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Southern Leyte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Isabela</t>
-  </si>
-  <si>
     <t xml:space="preserve">Zambonga del Norte</t>
   </si>
   <si>
@@ -200,84 +278,6 @@
   </si>
   <si>
     <t xml:space="preserve">Zambonga Sibugay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bukidnon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Camiguin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lanao del Norte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Misamis Occidental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Misamis Oriental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Compostela Valley</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Davao del Norte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Davao del Sur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Davao Occidental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Davao Oriental</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cotabato City</t>
-  </si>
-  <si>
-    <t xml:space="preserve">North Cotabato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sarangani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">South Cotabato</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sultan Kudarat</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Caraga</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agusan del Norte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Agusan del Sur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surigao del Norte</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Surigao del Sur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dinagat Islands</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Basilan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lanao del Sur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maguindanao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sulu</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tawi-Tawi</t>
   </si>
 </sst>
 </file>
@@ -293,7 +293,6 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -314,7 +313,6 @@
       <sz val="11"/>
       <name val="Cambria"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -384,6 +382,23 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="00FFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF3D3D3D"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -392,13 +407,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="180" zoomScaleNormal="180" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.38"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.82"/>
@@ -416,7 +431,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
@@ -427,106 +442,106 @@
         <v>120.75</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="0" t="n">
-        <v>18.1200000002446</v>
+        <v>8.91999999939958</v>
       </c>
       <c r="C3" s="0" t="n">
-        <v>121.19</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125.46</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>16.5000000000811</v>
+        <v>8.35999999939138</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>120.666667</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125.71</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="0" t="n">
-        <v>16.8333330001176</v>
+        <v>11.6297893995479</v>
       </c>
       <c r="C5" s="0" t="n">
-        <v>121.166667</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122.2481177</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>17.4600000001826</v>
+        <v>13.2166669997024</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>121.31</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>123.55</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>8</v>
       </c>
       <c r="B7" s="0" t="n">
-        <v>17.0922325001451</v>
+        <v>11.1705065995112</v>
       </c>
       <c r="C7" s="0" t="n">
-        <v>120.9737242</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122.083333</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="0" t="n">
-        <v>18.1666670002487</v>
+        <v>18.1200000002446</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>120.75</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121.19</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>17.2000000001563</v>
+        <v>16.0000000000245</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>120.5</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121.75</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>16.5735957000893</v>
+        <v>6.57864499941905</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>120.4089899</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122.034922</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="0" t="n">
-        <v>15.9166670000149</v>
+        <v>14.6666669998679</v>
       </c>
       <c r="C11" s="0" t="n">
-        <v>120.333333</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120.416667</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>13</v>
       </c>
@@ -537,62 +552,62 @@
         <v>121.8939456</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>14</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>18.0000000002339</v>
+        <v>13.9146825997803</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>121.833333</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121.0867566</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>15</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>16.3500000000643</v>
+        <v>16.5000000000811</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>121.13</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120.666667</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>16.2833330000568</v>
+        <v>11.5999999995454</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>121.583333</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124.49</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>17</v>
       </c>
       <c r="B16" s="0" t="n">
-        <v>16.0000000000245</v>
+        <v>9.83333299943018</v>
       </c>
       <c r="C16" s="0" t="n">
-        <v>121.75</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124.1615579</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>18</v>
       </c>
       <c r="B17" s="0" t="n">
-        <v>14.6666669998679</v>
+        <v>8.02277799939038</v>
       </c>
       <c r="C17" s="0" t="n">
-        <v>120.416667</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124.998611</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>19</v>
       </c>
@@ -603,477 +618,477 @@
         <v>121.083333</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>20</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>15.5833329999761</v>
+        <v>18.0000000002339</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121.833333</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>21</v>
       </c>
       <c r="B20" s="0" t="n">
-        <v>15.0251067999103</v>
+        <v>14.1666669998094</v>
       </c>
       <c r="C20" s="0" t="n">
-        <v>120.6870474</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122.75</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>22</v>
       </c>
       <c r="B21" s="0" t="n">
-        <v>15.5277374999695</v>
+        <v>13.6661749997521</v>
       </c>
       <c r="C21" s="0" t="n">
-        <v>120.4192688</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>123.3265172</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>23</v>
       </c>
       <c r="B22" s="0" t="n">
-        <v>15.2299999999345</v>
+        <v>9.17397529940597</v>
       </c>
       <c r="C22" s="0" t="n">
-        <v>120.12</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124.7256992</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>24</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>13.9146825997803</v>
+        <v>11.3852986995278</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>121.0867566</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122.6377315</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>25</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>14.2554072998197</v>
+        <v>9.0727</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>120.8671503</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125.511</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>26</v>
       </c>
       <c r="B25" s="0" t="n">
-        <v>14.1696475998097</v>
+        <v>13.833332999771</v>
       </c>
       <c r="C25" s="0" t="n">
-        <v>121.3336526</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124.25</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>27</v>
       </c>
       <c r="B26" s="0" t="n">
-        <v>13.8999999997787</v>
+        <v>14.2554072998197</v>
       </c>
       <c r="C26" s="0" t="n">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120.8671503</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>28</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>14.6499999998659</v>
+        <v>10.4499999994625</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>121.25</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>123.84</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="s">
         <v>29</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>13.4166669997243</v>
+        <v>7.7589</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>121.95</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125.9651</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
         <v>30</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>13.0000020996792</v>
+        <v>7.2236</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>120.9166666</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124.2464</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
         <v>31</v>
       </c>
       <c r="B30" s="0" t="n">
-        <v>13.1999999997006</v>
+        <v>8.91999999939958</v>
       </c>
       <c r="C30" s="0" t="n">
-        <v>121.2</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125.46</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
         <v>32</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>9.999999999438</v>
+        <v>8.35999999939138</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>118.75</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125.71</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
         <v>33</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>12.5886410996368</v>
+        <v>6.26999999943184</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>122.1933517</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125.6</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
         <v>34</v>
       </c>
       <c r="B33" s="0" t="n">
-        <v>13.2166669997024</v>
+        <v>7.16666699940104</v>
       </c>
       <c r="C33" s="0" t="n">
-        <v>123.55</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126.333333</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
         <v>35</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>14.1666669998094</v>
+        <v>10.157793199446</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>122.75</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125.5851827</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
         <v>36</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>13.6661749997521</v>
+        <v>11.7299999995564</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>123.3265172</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125.37</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
         <v>37</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>13.833332999771</v>
+        <v>10.57306289947</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>124.25</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122.6238907</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
         <v>38</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>12.1666669995958</v>
+        <v>16.8333330001176</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>123.583333</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121.166667</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
         <v>39</v>
       </c>
       <c r="B38" s="0" t="n">
-        <v>12.8333329996618</v>
+        <v>18.1666670002487</v>
       </c>
       <c r="C38" s="0" t="n">
-        <v>123.916667</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120.75</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
         <v>40</v>
       </c>
       <c r="B39" s="0" t="n">
-        <v>11.6297893995479</v>
+        <v>17.2000000001563</v>
       </c>
       <c r="C39" s="0" t="n">
-        <v>122.2481177</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120.5</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
         <v>41</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>11.1705065995112</v>
+        <v>10.9522167994952</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>122.083333</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122.5799456</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
         <v>42</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>11.3852986995278</v>
+        <v>17.0000000001354</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>122.6377315</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
         <v>43</v>
       </c>
       <c r="B42" s="0" t="n">
-        <v>10.57306289947</v>
+        <v>17.4600000001826</v>
       </c>
       <c r="C42" s="0" t="n">
-        <v>122.6238907</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121.31</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
         <v>44</v>
       </c>
       <c r="B43" s="0" t="n">
-        <v>10.9522167994952</v>
+        <v>16.5735957000893</v>
       </c>
       <c r="C43" s="0" t="n">
-        <v>122.5799456</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120.4089899</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
         <v>45</v>
       </c>
       <c r="B44" s="0" t="n">
-        <v>10.4166669994605</v>
+        <v>14.1696475998097</v>
       </c>
       <c r="C44" s="0" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121.3336526</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
         <v>46</v>
       </c>
       <c r="B45" s="0" t="n">
-        <v>9.83333299943018</v>
+        <v>7.95797229939053</v>
       </c>
       <c r="C45" s="0" t="n">
-        <v>124.1615579</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>123.9021124</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
         <v>47</v>
       </c>
       <c r="B46" s="0" t="n">
-        <v>10.4499999994625</v>
+        <v>7.87764429939086</v>
       </c>
       <c r="C46" s="0" t="n">
-        <v>123.84</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124.3754759</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
         <v>48</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>9.74999999942652</v>
+        <v>10.9499999994951</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124.85</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
         <v>49</v>
       </c>
       <c r="B48" s="0" t="n">
-        <v>9.17999999940614</v>
+        <v>7.01999999940473</v>
       </c>
       <c r="C48" s="0" t="n">
-        <v>123.58</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124.26</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
         <v>50</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>11.5999999995454</v>
+        <v>13.4166669997243</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>124.49</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121.95</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
         <v>51</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>11.7299999995564</v>
+        <v>12.1666669995958</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>125.37</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>123.583333</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
         <v>52</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>10.9499999994951</v>
+        <v>8.3333329993912</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>124.85</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>123.7</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
         <v>53</v>
       </c>
       <c r="B52" s="0" t="n">
-        <v>12.4199999996201</v>
+        <v>8.71999999939572</v>
       </c>
       <c r="C52" s="0" t="n">
-        <v>124.81</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124.84</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
         <v>54</v>
       </c>
       <c r="B53" s="0" t="n">
-        <v>11.640029</v>
+        <v>17.0922325001451</v>
       </c>
       <c r="C53" s="0" t="n">
-        <v>124.948067540342</v>
-      </c>
-    </row>
-    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120.9737242</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
         <v>55</v>
       </c>
       <c r="B54" s="0" t="n">
-        <v>10.3475098994565</v>
+        <v>10.4166669994605</v>
       </c>
       <c r="C54" s="0" t="n">
-        <v>125.1250896</v>
-      </c>
-    </row>
-    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
         <v>56</v>
       </c>
       <c r="B55" s="0" t="n">
-        <v>17.0000000001354</v>
+        <v>9.74999999942652</v>
       </c>
       <c r="C55" s="0" t="n">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
         <v>57</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>7.99999999939042</v>
+        <v>7.26999999939876</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>122.666667</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124.86</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
         <v>58</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>7.90429999939073</v>
+        <v>12.4199999996201</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>123.3194</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124.81</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
         <v>59</v>
       </c>
       <c r="B58" s="0" t="n">
-        <v>7.78770969939143</v>
+        <v>15.5833329999761</v>
       </c>
       <c r="C58" s="0" t="n">
-        <v>122.5744217</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
         <v>60</v>
       </c>
       <c r="B59" s="0" t="n">
-        <v>8.02277799939038</v>
+        <v>16.3500000000643</v>
       </c>
       <c r="C59" s="0" t="n">
-        <v>124.998611</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121.13</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
         <v>61</v>
       </c>
       <c r="B60" s="0" t="n">
-        <v>9.17397529940597</v>
+        <v>13.0000020996792</v>
       </c>
       <c r="C60" s="0" t="n">
-        <v>124.7256992</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120.9166666</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
         <v>62</v>
       </c>
       <c r="B61" s="0" t="n">
-        <v>7.95797229939053</v>
+        <v>13.1999999997006</v>
       </c>
       <c r="C61" s="0" t="n">
-        <v>123.9021124</v>
+        <v>121.2</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="18.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1081,112 +1096,112 @@
         <v>63</v>
       </c>
       <c r="B62" s="0" t="n">
-        <v>8.3333329993912</v>
+        <v>9.999999999438</v>
       </c>
       <c r="C62" s="0" t="n">
-        <v>123.7</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>118.75</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
         <v>64</v>
       </c>
       <c r="B63" s="0" t="n">
-        <v>8.71999999939572</v>
+        <v>15.0251067999103</v>
       </c>
       <c r="C63" s="0" t="n">
-        <v>124.84</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120.6870474</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
         <v>65</v>
       </c>
       <c r="B64" s="0" t="n">
-        <v>7.7589</v>
+        <v>15.9166670000149</v>
       </c>
       <c r="C64" s="0" t="n">
-        <v>125.9651</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120.333333</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
         <v>66</v>
       </c>
       <c r="B65" s="0" t="n">
-        <v>8.91999999939958</v>
+        <v>13.8999999997787</v>
       </c>
       <c r="C65" s="0" t="n">
-        <v>125.46</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
         <v>67</v>
       </c>
       <c r="B66" s="0" t="n">
-        <v>8.35999999939138</v>
+        <v>16.2833330000568</v>
       </c>
       <c r="C66" s="0" t="n">
-        <v>125.71</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121.583333</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="0" t="s">
         <v>68</v>
       </c>
       <c r="B67" s="0" t="n">
-        <v>6.26999999943184</v>
+        <v>14.6499999998659</v>
       </c>
       <c r="C67" s="0" t="n">
-        <v>125.6</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121.25</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
         <v>69</v>
       </c>
       <c r="B68" s="0" t="n">
-        <v>7.16666699940104</v>
+        <v>12.5886410996368</v>
       </c>
       <c r="C68" s="0" t="n">
-        <v>126.333333</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122.1933517</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="0" t="s">
         <v>70</v>
       </c>
       <c r="B69" s="0" t="n">
-        <v>7.2236</v>
+        <v>5.87472199945144</v>
       </c>
       <c r="C69" s="0" t="n">
-        <v>124.2464</v>
-      </c>
-    </row>
-    <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125.275278</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="s">
         <v>71</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>7.26999999939876</v>
+        <v>9.17999999940614</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>124.86</v>
-      </c>
-    </row>
-    <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>123.58</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
         <v>72</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>5.87472199945144</v>
+        <v>12.8333329996618</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>125.275278</v>
-      </c>
-    </row>
-    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>123.916667</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
         <v>73</v>
       </c>
@@ -1197,139 +1212,138 @@
         <v>124.9333096</v>
       </c>
     </row>
-    <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="0" t="s">
         <v>74</v>
       </c>
       <c r="B73" s="0" t="n">
-        <v>6.55567049941992</v>
+        <v>10.3475098994565</v>
       </c>
       <c r="C73" s="0" t="n">
-        <v>124.3271496</v>
-      </c>
-    </row>
-    <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125.1250896</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
         <v>75</v>
       </c>
       <c r="B74" s="0" t="n">
-        <v>9.0727</v>
+        <v>6.55567049941992</v>
       </c>
       <c r="C74" s="0" t="n">
-        <v>125.511</v>
-      </c>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124.3271496</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
         <v>76</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>8.91999999939958</v>
+        <v>5.99428079944514</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>125.46</v>
-      </c>
-    </row>
-    <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>121.0787926</v>
+      </c>
+    </row>
+    <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
         <v>77</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>8.35999999939138</v>
+        <v>9.7022867994245</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>125.71</v>
-      </c>
-    </row>
-    <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>125.5464831</v>
+      </c>
+    </row>
+    <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
         <v>78</v>
       </c>
       <c r="B77" s="0" t="n">
-        <v>9.7022867994245</v>
+        <v>8.83999999939791</v>
       </c>
       <c r="C77" s="0" t="n">
-        <v>125.5464831</v>
-      </c>
-    </row>
-    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>126.15</v>
+      </c>
+    </row>
+    <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
         <v>79</v>
       </c>
       <c r="B78" s="0" t="n">
-        <v>8.83999999939791</v>
+        <v>15.5277374999695</v>
       </c>
       <c r="C78" s="0" t="n">
-        <v>126.15</v>
-      </c>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120.4192688</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
         <v>80</v>
       </c>
       <c r="B79" s="0" t="n">
-        <v>10.157793199446</v>
+        <v>5.20569999949235</v>
       </c>
       <c r="C79" s="0" t="n">
-        <v>125.5851827</v>
-      </c>
-    </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120.0265</v>
+      </c>
+    </row>
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
         <v>81</v>
       </c>
       <c r="B80" s="0" t="n">
-        <v>6.57864499941905</v>
+        <v>11.640029</v>
       </c>
       <c r="C80" s="0" t="n">
-        <v>122.034922</v>
-      </c>
-    </row>
-    <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>124.948067540342</v>
+      </c>
+    </row>
+    <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
         <v>82</v>
       </c>
       <c r="B81" s="0" t="n">
-        <v>7.87764429939086</v>
+        <v>15.2299999999345</v>
       </c>
       <c r="C81" s="0" t="n">
-        <v>124.3754759</v>
-      </c>
-    </row>
-    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>120.12</v>
+      </c>
+    </row>
+    <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
         <v>83</v>
       </c>
       <c r="B82" s="0" t="n">
-        <v>7.01999999940473</v>
+        <v>7.99999999939042</v>
       </c>
       <c r="C82" s="0" t="n">
-        <v>124.26</v>
-      </c>
-    </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122.666667</v>
+      </c>
+    </row>
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
         <v>84</v>
       </c>
       <c r="B83" s="0" t="n">
-        <v>5.99428079944514</v>
+        <v>7.90429999939073</v>
       </c>
       <c r="C83" s="0" t="n">
-        <v>121.0787926</v>
-      </c>
-    </row>
-    <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>123.3194</v>
+      </c>
+    </row>
+    <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
         <v>85</v>
       </c>
       <c r="B84" s="0" t="n">
-        <v>5.20569999949235</v>
+        <v>7.78770969939143</v>
       </c>
       <c r="C84" s="0" t="n">
-        <v>120.0265</v>
-      </c>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>122.5744217</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
